--- a/venuedata.xlsx
+++ b/venuedata.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Venue name</t>
   </si>
@@ -47,40 +47,13 @@
     <t>Minimal fee (in €)</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Vollmar (Full):</t>
-  </si>
-  <si>
-    <t>Vollmar (Corona):</t>
-  </si>
-  <si>
-    <t>Brussels:</t>
+    <t>Vollmar (Full)</t>
+  </si>
+  <si>
+    <t>Vollmar (Corona)</t>
+  </si>
+  <si>
+    <t>Brussels</t>
   </si>
 </sst>
 </file>
@@ -132,38 +105,37 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -171,341 +143,314 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
+      <c r="B2" t="n">
+        <v>37243.5</v>
       </c>
       <c r="C2" t="n">
-        <v>37243.5</v>
+        <v>2000.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2000.0</v>
+        <v>5.0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.0</v>
+        <v>200.0</v>
       </c>
       <c r="F2" t="n">
-        <v>200.0</v>
+        <v>12.0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.0</v>
+        <v>53.0</v>
       </c>
       <c r="H2" t="n">
-        <v>53.0</v>
+        <v>65.0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.0</v>
+        <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0</v>
+        <v>2000.0</v>
       </c>
       <c r="K2" t="n">
-        <v>2000.0</v>
-      </c>
-      <c r="L2" t="n">
         <v>756.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3" t="n">
+        <v>37243.5</v>
       </c>
       <c r="C3" t="n">
-        <v>37243.5</v>
+        <v>2000.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2000.0</v>
+        <v>5.0</v>
       </c>
       <c r="E3" t="n">
-        <v>5.0</v>
+        <v>200.0</v>
       </c>
       <c r="F3" t="n">
-        <v>200.0</v>
+        <v>12.0</v>
       </c>
       <c r="G3" t="n">
-        <v>12.0</v>
+        <v>53.0</v>
       </c>
       <c r="H3" t="n">
-        <v>53.0</v>
+        <v>65.0</v>
       </c>
       <c r="I3" t="n">
-        <v>65.0</v>
+        <v>10000.0</v>
       </c>
       <c r="J3" t="n">
-        <v>10000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="K3" t="n">
-        <v>2000.0</v>
-      </c>
-      <c r="L3" t="n">
         <v>547.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
+        <v>37243.5</v>
       </c>
       <c r="C4" t="n">
-        <v>37243.5</v>
+        <v>2000.0</v>
       </c>
       <c r="D4" t="n">
-        <v>2000.0</v>
+        <v>5.0</v>
       </c>
       <c r="E4" t="n">
-        <v>5.0</v>
+        <v>200.0</v>
       </c>
       <c r="F4" t="n">
-        <v>200.0</v>
+        <v>12.0</v>
       </c>
       <c r="G4" t="n">
-        <v>12.0</v>
+        <v>53.0</v>
       </c>
       <c r="H4" t="n">
-        <v>53.0</v>
+        <v>65.0</v>
       </c>
       <c r="I4" t="n">
-        <v>65.0</v>
+        <v>20000.0</v>
       </c>
       <c r="J4" t="n">
-        <v>20000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="K4" t="n">
-        <v>2000.0</v>
-      </c>
-      <c r="L4" t="n">
         <v>339.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>26820.0</v>
       </c>
       <c r="C5" t="n">
-        <v>26820.0</v>
+        <v>2000.0</v>
       </c>
       <c r="D5" t="n">
-        <v>2000.0</v>
+        <v>5.0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.0</v>
+        <v>200.0</v>
       </c>
       <c r="F5" t="n">
-        <v>200.0</v>
+        <v>8.0</v>
       </c>
       <c r="G5" t="n">
-        <v>8.0</v>
+        <v>32.0</v>
       </c>
       <c r="H5" t="n">
-        <v>32.0</v>
+        <v>40.0</v>
       </c>
       <c r="I5" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0</v>
+        <v>2000.0</v>
       </c>
       <c r="K5" t="n">
-        <v>2000.0</v>
-      </c>
-      <c r="L5" t="n">
         <v>957.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>26820.0</v>
       </c>
       <c r="C6" t="n">
-        <v>26820.0</v>
+        <v>2000.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2000.0</v>
+        <v>5.0</v>
       </c>
       <c r="E6" t="n">
-        <v>5.0</v>
+        <v>200.0</v>
       </c>
       <c r="F6" t="n">
-        <v>200.0</v>
+        <v>8.0</v>
       </c>
       <c r="G6" t="n">
-        <v>8.0</v>
+        <v>32.0</v>
       </c>
       <c r="H6" t="n">
-        <v>32.0</v>
+        <v>40.0</v>
       </c>
       <c r="I6" t="n">
-        <v>40.0</v>
+        <v>10000.0</v>
       </c>
       <c r="J6" t="n">
-        <v>10000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="K6" t="n">
-        <v>2000.0</v>
-      </c>
-      <c r="L6" t="n">
         <v>586.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>26820.0</v>
       </c>
       <c r="C7" t="n">
-        <v>26820.0</v>
+        <v>2000.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2000.0</v>
+        <v>5.0</v>
       </c>
       <c r="E7" t="n">
-        <v>5.0</v>
+        <v>200.0</v>
       </c>
       <c r="F7" t="n">
-        <v>200.0</v>
+        <v>8.0</v>
       </c>
       <c r="G7" t="n">
-        <v>8.0</v>
+        <v>32.0</v>
       </c>
       <c r="H7" t="n">
-        <v>32.0</v>
+        <v>40.0</v>
       </c>
       <c r="I7" t="n">
-        <v>40.0</v>
+        <v>20000.0</v>
       </c>
       <c r="J7" t="n">
-        <v>20000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="K7" t="n">
-        <v>2000.0</v>
-      </c>
-      <c r="L7" t="n">
         <v>216.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>33265.82</v>
       </c>
       <c r="C8" t="n">
-        <v>33265.82</v>
+        <v>3000.0</v>
       </c>
       <c r="D8" t="n">
-        <v>3000.0</v>
+        <v>5.0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.0</v>
+        <v>200.0</v>
       </c>
       <c r="F8" t="n">
-        <v>200.0</v>
+        <v>12.0</v>
       </c>
       <c r="G8" t="n">
-        <v>12.0</v>
+        <v>48.0</v>
       </c>
       <c r="H8" t="n">
-        <v>48.0</v>
+        <v>60.0</v>
       </c>
       <c r="I8" t="n">
-        <v>60.0</v>
+        <v>0.0</v>
       </c>
       <c r="J8" t="n">
         <v>0.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L8" t="n">
         <v>821.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>33265.82</v>
       </c>
       <c r="C9" t="n">
-        <v>33265.82</v>
+        <v>3000.0</v>
       </c>
       <c r="D9" t="n">
-        <v>3000.0</v>
+        <v>5.0</v>
       </c>
       <c r="E9" t="n">
-        <v>5.0</v>
+        <v>200.0</v>
       </c>
       <c r="F9" t="n">
-        <v>200.0</v>
+        <v>12.0</v>
       </c>
       <c r="G9" t="n">
-        <v>12.0</v>
+        <v>48.0</v>
       </c>
       <c r="H9" t="n">
-        <v>48.0</v>
+        <v>60.0</v>
       </c>
       <c r="I9" t="n">
-        <v>60.0</v>
+        <v>10000.0</v>
       </c>
       <c r="J9" t="n">
-        <v>10000.0</v>
+        <v>0.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L9" t="n">
         <v>588.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="B10" t="n">
+        <v>33265.82</v>
       </c>
       <c r="C10" t="n">
-        <v>33265.82</v>
+        <v>3000.0</v>
       </c>
       <c r="D10" t="n">
-        <v>3000.0</v>
+        <v>5.0</v>
       </c>
       <c r="E10" t="n">
-        <v>5.0</v>
+        <v>200.0</v>
       </c>
       <c r="F10" t="n">
-        <v>200.0</v>
+        <v>12.0</v>
       </c>
       <c r="G10" t="n">
-        <v>12.0</v>
+        <v>48.0</v>
       </c>
       <c r="H10" t="n">
-        <v>48.0</v>
+        <v>60.0</v>
       </c>
       <c r="I10" t="n">
-        <v>60.0</v>
+        <v>20000.0</v>
       </c>
       <c r="J10" t="n">
-        <v>20000.0</v>
+        <v>0.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L10" t="n">
         <v>356.0</v>
       </c>
     </row>
